--- a/Excel File/01_11_2017_Wahington.xlsx
+++ b/Excel File/01_11_2017_Wahington.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jxbaby/Desktop/DV Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14558" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$R$2:$Z$25</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
   <si>
     <t>Player</t>
   </si>
@@ -147,13 +148,67 @@
   </si>
   <si>
     <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Avery Bradley</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Amir Johnson</t>
+  </si>
+  <si>
+    <t>Tyler Zeller</t>
+  </si>
+  <si>
+    <t>Demetrius Jackson</t>
+  </si>
+  <si>
+    <t>James Young</t>
+  </si>
+  <si>
+    <t>Andrew Nicholson</t>
+  </si>
+  <si>
+    <t>Daniel Ochefu</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky</t>
+  </si>
+  <si>
+    <t>Marcus Thornton</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>BLk</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>tov</t>
+  </si>
+  <si>
+    <t>reb</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>Was</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,18 +223,10 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -187,6 +234,18 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,28 +265,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,73 +561,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1.5479166666666666</v>
       </c>
       <c r="F2" s="1">
@@ -598,20 +659,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.3208333333333333</v>
       </c>
       <c r="F3" s="1">
@@ -645,20 +706,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.590972222222222</v>
       </c>
       <c r="F4" s="1">
@@ -692,20 +753,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1.5368055555555555</v>
       </c>
       <c r="F5" s="1">
@@ -739,20 +800,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1.6131944444444446</v>
       </c>
       <c r="F6" s="1">
@@ -786,20 +847,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.38680555555555557</v>
       </c>
       <c r="F7" s="1">
@@ -833,20 +894,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.68194444444444446</v>
       </c>
       <c r="F8" s="1">
@@ -880,20 +941,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="F9" s="1">
@@ -927,20 +988,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.77986111111111101</v>
       </c>
       <c r="F10" s="1">
@@ -974,10 +1035,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -997,7 +1058,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1036,7 +1097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1053,20 +1114,20 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
         <v>1.4284722222222221</v>
       </c>
       <c r="F15" s="1">
@@ -1100,20 +1161,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
         <v>1.3569444444444445</v>
       </c>
       <c r="F16" s="1">
@@ -1147,20 +1208,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
         <v>0.58263888888888882</v>
       </c>
       <c r="F17" s="1">
@@ -1194,20 +1255,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1.5111111111111111</v>
       </c>
       <c r="F18" s="1">
@@ -1241,20 +1302,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
         <v>1.5833333333333333</v>
       </c>
       <c r="F19" s="1">
@@ -1288,20 +1349,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.60069444444444442</v>
       </c>
       <c r="F20" s="1">
@@ -1335,20 +1396,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
         <v>0.93611111111111101</v>
       </c>
       <c r="F21" s="1">
@@ -1382,20 +1443,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="4">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
         <v>0.95763888888888893</v>
       </c>
       <c r="F22" s="1">
@@ -1429,20 +1490,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
         <v>1.0430555555555556</v>
       </c>
       <c r="F23" s="1">
@@ -1476,10 +1537,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1497,7 +1558,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1536,7 +1597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1554,27 +1615,1619 @@
       <c r="O26" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="K2:Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" customWidth="1"/>
+    <col min="3" max="3" width="8.9375" customWidth="1"/>
+    <col min="8" max="8" width="8.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>9</v>
+      </c>
+      <c r="O3" s="8">
+        <v>4</v>
+      </c>
+      <c r="P3" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>14</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>16</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>16</v>
+      </c>
+      <c r="N7" s="8">
+        <v>6</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>26</v>
+      </c>
+      <c r="N9" s="8">
+        <v>9</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3</v>
+      </c>
+      <c r="P9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>34</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>27</v>
+      </c>
+      <c r="N11" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>20</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>3</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>19</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>18</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>9</v>
+      </c>
+      <c r="W15" s="1">
+        <v>10</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>14</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>13</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>13</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2</v>
+      </c>
+      <c r="W23" s="1">
+        <v>2</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>10</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="51" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <autoFilter ref="R2:Z25">
+    <sortState ref="R3:Z25">
+      <sortCondition descending="1" ref="T15:T38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>